--- a/BalanceSheet/NOC_bal.xlsx
+++ b/BalanceSheet/NOC_bal.xlsx
@@ -4705,7 +4705,7 @@
         <v>14091000000.0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>13281000000.0</v>
+        <v>11973000000.0</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>12699000000.0</v>
@@ -4832,7 +4832,7 @@
         <v>17369000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>15526000000.0</v>
+        <v>14218000000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>13826000000.0</v>
